--- a/artfynd/A 54297-2020.xlsx
+++ b/artfynd/A 54297-2020.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY2"/>
+  <dimension ref="A1:AY4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -802,6 +802,252 @@
       </c>
       <c r="AY2" t="inlineStr"/>
     </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>112485150</v>
+      </c>
+      <c r="B3" t="n">
+        <v>95687</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>221945</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Revlummer</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Lycopodium annotinum</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>L.</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+      <c r="N3" t="inlineStr"/>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>Ljusmyran SV Ljusträsket, Nb</t>
+        </is>
+      </c>
+      <c r="Q3" t="n">
+        <v>803831</v>
+      </c>
+      <c r="R3" t="n">
+        <v>7327207</v>
+      </c>
+      <c r="S3" t="n">
+        <v>100</v>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>Norrbotten</t>
+        </is>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>Boden</t>
+        </is>
+      </c>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>Norrbotten</t>
+        </is>
+      </c>
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>Överluleå</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
+        <is>
+          <t>2023-10-02</t>
+        </is>
+      </c>
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>13:00</t>
+        </is>
+      </c>
+      <c r="AA3" t="inlineStr">
+        <is>
+          <t>2023-10-02</t>
+        </is>
+      </c>
+      <c r="AB3" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="AD3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF3" t="inlineStr"/>
+      <c r="AG3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT3" t="inlineStr"/>
+      <c r="AW3" t="inlineStr">
+        <is>
+          <t>Mats Bergquist</t>
+        </is>
+      </c>
+      <c r="AX3" t="inlineStr">
+        <is>
+          <t>Mats Bergquist</t>
+        </is>
+      </c>
+      <c r="AY3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>112485368</v>
+      </c>
+      <c r="B4" t="n">
+        <v>90843</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>5448</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Svartvit taggsvamp</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Phellodon connatus</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>(Schultz) nom.prov</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr"/>
+      <c r="N4" t="inlineStr"/>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>Buddbyn 7:19:5, Nb</t>
+        </is>
+      </c>
+      <c r="Q4" t="n">
+        <v>804025</v>
+      </c>
+      <c r="R4" t="n">
+        <v>7327298</v>
+      </c>
+      <c r="S4" t="n">
+        <v>25</v>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>Norrbotten</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>Boden</t>
+        </is>
+      </c>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>Norrbotten</t>
+        </is>
+      </c>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>Överluleå</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>2023-10-02</t>
+        </is>
+      </c>
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>13:00</t>
+        </is>
+      </c>
+      <c r="AA4" t="inlineStr">
+        <is>
+          <t>2023-10-02</t>
+        </is>
+      </c>
+      <c r="AB4" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="AC4" t="inlineStr">
+        <is>
+          <t>Några meter väster om kraftledningen.</t>
+        </is>
+      </c>
+      <c r="AD4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF4" t="inlineStr"/>
+      <c r="AG4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT4" t="inlineStr"/>
+      <c r="AW4" t="inlineStr">
+        <is>
+          <t>Mats Bergquist</t>
+        </is>
+      </c>
+      <c r="AX4" t="inlineStr">
+        <is>
+          <t>Mats Bergquist</t>
+        </is>
+      </c>
+      <c r="AY4" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/artfynd/A 54297-2020.xlsx
+++ b/artfynd/A 54297-2020.xlsx
@@ -807,7 +807,7 @@
         <v>112485150</v>
       </c>
       <c r="B3" t="n">
-        <v>95687</v>
+        <v>95701</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -924,7 +924,7 @@
         <v>112485368</v>
       </c>
       <c r="B4" t="n">
-        <v>90843</v>
+        <v>90857</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
